--- a/data/output/FV2304_FV2210/INVOIC/31011.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31011.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="324">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="324">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1113,6 +1113,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U196" totalsRowShown="0">
+  <autoFilter ref="A1:U196"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,7 +1432,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10097,5 +10130,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/INVOIC/31011.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4659" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="505">
   <si>
     <t>#</t>
   </si>
@@ -4247,48 +4247,46 @@
       <c r="V47" s="9"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M48" s="5" t="s">
+      <c r="K48" s="2"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="O48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5" t="s">
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V48" s="5"/>
+      <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
@@ -4318,9 +4316,7 @@
         <v>256</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>33</v>
       </c>
@@ -4374,9 +4370,7 @@
       <c r="K50" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="5" t="s">
         <v>33</v>
       </c>
@@ -4430,9 +4424,7 @@
         <v>256</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="5" t="s">
         <v>33</v>
       </c>
@@ -4459,46 +4451,44 @@
       <c r="V51" s="5"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L52" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M52" s="5" t="s">
+      <c r="L52" s="4"/>
+      <c r="M52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="N52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5" t="s">
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="V52" s="5" t="s">
+      <c r="V52" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4524,9 +4514,7 @@
         <v>255</v>
       </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>34</v>
       </c>
@@ -4574,9 +4562,7 @@
         <v>256</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>34</v>
       </c>
@@ -4630,9 +4616,7 @@
       <c r="K55" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="L55" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>34</v>
       </c>
@@ -4659,44 +4643,42 @@
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M56" s="5" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4720,9 +4702,7 @@
         <v>255</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>35</v>
       </c>
@@ -4768,9 +4748,7 @@
         <v>268</v>
       </c>
       <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>35</v>
       </c>
@@ -4822,9 +4800,7 @@
       <c r="K59" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="L59" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>35</v>
       </c>
@@ -4878,9 +4854,7 @@
         <v>256</v>
       </c>
       <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>35</v>
       </c>
@@ -4934,9 +4908,7 @@
         <v>256</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>35</v>
       </c>
@@ -4988,9 +4960,7 @@
         <v>256</v>
       </c>
       <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="5" t="s">
         <v>35</v>
       </c>
@@ -5042,9 +5012,7 @@
         <v>256</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>35</v>
       </c>
@@ -5098,9 +5066,7 @@
         <v>256</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>35</v>
       </c>
@@ -5154,9 +5120,7 @@
       <c r="K65" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>35</v>
       </c>
@@ -5208,9 +5172,7 @@
         <v>271</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>35</v>
       </c>
@@ -5260,9 +5222,7 @@
         <v>256</v>
       </c>
       <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="5" t="s">
         <v>35</v>
       </c>
@@ -5312,9 +5272,7 @@
         <v>256</v>
       </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>35</v>
       </c>
@@ -5731,44 +5689,42 @@
       <c r="V78" s="9"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M79" s="5" t="s">
+      <c r="K79" s="2"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -5792,9 +5748,7 @@
         <v>255</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>37</v>
       </c>
@@ -5838,9 +5792,7 @@
         <v>274</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>37</v>
       </c>
@@ -5888,9 +5840,7 @@
         <v>256</v>
       </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>37</v>
       </c>
@@ -5915,48 +5865,46 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M83" s="5" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O83" s="5" t="s">
+      <c r="O83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5" t="s">
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V83" s="5"/>
+      <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -5984,9 +5932,7 @@
         <v>256</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>38</v>
       </c>
@@ -6038,9 +5984,7 @@
         <v>275</v>
       </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>38</v>
       </c>
@@ -6094,9 +6038,7 @@
         <v>275</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>38</v>
       </c>
@@ -6150,9 +6092,7 @@
         <v>275</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>38</v>
       </c>
@@ -6206,9 +6146,7 @@
         <v>275</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>38</v>
       </c>
@@ -6262,9 +6200,7 @@
         <v>275</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>38</v>
       </c>
@@ -6291,44 +6227,42 @@
       <c r="V89" s="5"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V90" s="5"/>
+      <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -6352,9 +6286,7 @@
         <v>255</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>39</v>
       </c>
@@ -6398,9 +6330,7 @@
         <v>276</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>39</v>
       </c>
@@ -6450,9 +6380,7 @@
       <c r="K93" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="L93" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>39</v>
       </c>
@@ -6506,9 +6434,7 @@
         <v>256</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>39</v>
       </c>
@@ -6562,9 +6488,7 @@
         <v>256</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>39</v>
       </c>
@@ -6616,9 +6540,7 @@
         <v>256</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>39</v>
       </c>
@@ -6670,9 +6592,7 @@
         <v>256</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>39</v>
       </c>
@@ -6726,9 +6646,7 @@
         <v>256</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>39</v>
       </c>
@@ -6782,9 +6700,7 @@
       <c r="K99" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="L99" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>39</v>
       </c>
@@ -6836,9 +6752,7 @@
         <v>271</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>39</v>
       </c>
@@ -6888,9 +6802,7 @@
         <v>256</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>39</v>
       </c>
@@ -6940,9 +6852,7 @@
         <v>256</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>39</v>
       </c>
@@ -7363,44 +7273,42 @@
       <c r="V112" s="9"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M113" s="5" t="s">
+      <c r="K113" s="2"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N113" s="5" t="s">
+      <c r="N113" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5" t="s">
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V113" s="5"/>
+      <c r="V113" s="2"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -7424,9 +7332,7 @@
         <v>255</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>40</v>
       </c>
@@ -7470,9 +7376,7 @@
         <v>278</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>40</v>
       </c>
@@ -7747,48 +7651,46 @@
       <c r="V120" s="9"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5" t="s">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M121" s="5" t="s">
+      <c r="K121" s="2"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N121" s="5" t="s">
+      <c r="N121" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O121" s="5" t="s">
+      <c r="O121" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5" t="s">
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V121" s="5"/>
+      <c r="V121" s="2"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
@@ -7814,9 +7716,7 @@
         <v>280</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>41</v>
       </c>
@@ -7866,9 +7766,7 @@
       <c r="K123" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="L123" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>41</v>
       </c>
@@ -7895,44 +7793,42 @@
       </c>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5" t="s">
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M124" s="5" t="s">
+      <c r="K124" s="2"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N124" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5" t="s">
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V124" s="5"/>
+      <c r="V124" s="2"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="5" t="s">
@@ -7956,9 +7852,7 @@
         <v>255</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>42</v>
       </c>
@@ -8006,9 +7900,7 @@
         <v>256</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>42</v>
       </c>
@@ -8062,9 +7954,7 @@
         <v>256</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>42</v>
       </c>
@@ -8118,9 +8008,7 @@
         <v>256</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>42</v>
       </c>
@@ -8147,44 +8035,42 @@
       <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5" t="s">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M129" s="5" t="s">
+      <c r="K129" s="2"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5" t="s">
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V129" s="5"/>
+      <c r="V129" s="2"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="5" t="s">
@@ -8208,9 +8094,7 @@
         <v>255</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>43</v>
       </c>
@@ -8254,9 +8138,7 @@
         <v>282</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>43</v>
       </c>
@@ -8279,48 +8161,46 @@
       <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M132" s="5" t="s">
+      <c r="K132" s="2"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O132" s="5" t="s">
+      <c r="O132" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V132" s="5"/>
+      <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -8350,9 +8230,7 @@
         <v>256</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>44</v>
       </c>
@@ -8404,9 +8282,7 @@
         <v>283</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>44</v>
       </c>
@@ -8458,9 +8334,7 @@
         <v>256</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>44</v>
       </c>
@@ -8487,44 +8361,42 @@
       <c r="V135" s="5"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5" t="s">
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M136" s="5" t="s">
+      <c r="K136" s="2"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N136" s="5" t="s">
+      <c r="N136" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
-      <c r="T136" s="5"/>
-      <c r="U136" s="5" t="s">
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V136" s="5"/>
+      <c r="V136" s="2"/>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="5" t="s">
@@ -8548,9 +8420,7 @@
         <v>255</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>45</v>
       </c>
@@ -8598,9 +8468,7 @@
       <c r="K138" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>45</v>
       </c>
@@ -8654,9 +8522,7 @@
       <c r="K139" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L139" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>45</v>
       </c>
@@ -8710,9 +8576,7 @@
         <v>256</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>45</v>
       </c>
@@ -8739,48 +8603,46 @@
       <c r="V140" s="5"/>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M141" s="5" t="s">
+      <c r="K141" s="2"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N141" s="5" t="s">
+      <c r="N141" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O141" s="5" t="s">
+      <c r="O141" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V141" s="5"/>
+      <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -8810,9 +8672,7 @@
         <v>256</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>46</v>
       </c>
@@ -8866,9 +8726,7 @@
       <c r="K143" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L143" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>46</v>
       </c>
@@ -8922,9 +8780,7 @@
         <v>256</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>46</v>
       </c>
@@ -8978,9 +8834,7 @@
         <v>256</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>46</v>
       </c>
@@ -9007,50 +8861,48 @@
       <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5" t="s">
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K146" s="5" t="s">
+      <c r="K146" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L146" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M146" s="5" t="s">
+      <c r="L146" s="4"/>
+      <c r="M146" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N146" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O146" s="5" t="s">
+      <c r="O146" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5" t="s">
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V146" s="5" t="s">
+      <c r="V146" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -9082,9 +8934,7 @@
         <v>256</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>47</v>
       </c>
@@ -9136,9 +8986,7 @@
         <v>260</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>47</v>
       </c>
@@ -9190,9 +9038,7 @@
         <v>256</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>47</v>
       </c>
@@ -9219,50 +9065,48 @@
       <c r="V149" s="5"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5" t="s">
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K150" s="5" t="s">
+      <c r="K150" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L150" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M150" s="5" t="s">
+      <c r="L150" s="4"/>
+      <c r="M150" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N150" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O150" s="5" t="s">
+      <c r="O150" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5" t="s">
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V150" s="5" t="s">
+      <c r="V150" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -9294,9 +9138,7 @@
         <v>256</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>48</v>
       </c>
@@ -9348,9 +9190,7 @@
         <v>260</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>48</v>
       </c>
@@ -9402,9 +9242,7 @@
         <v>256</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>48</v>
       </c>
@@ -9431,50 +9269,48 @@
       <c r="V153" s="5"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5" t="s">
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K154" s="5" t="s">
+      <c r="K154" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L154" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M154" s="5" t="s">
+      <c r="L154" s="4"/>
+      <c r="M154" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N154" s="5" t="s">
+      <c r="N154" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O154" s="5" t="s">
+      <c r="O154" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-      <c r="U154" s="5" t="s">
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="V154" s="5" t="s">
+      <c r="V154" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -9506,9 +9342,7 @@
         <v>256</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>28</v>
       </c>
@@ -9562,9 +9396,7 @@
       <c r="K156" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="L156" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>28</v>
       </c>
@@ -9618,9 +9450,7 @@
         <v>256</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>28</v>
       </c>
@@ -9647,44 +9477,42 @@
       <c r="V157" s="5"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5" t="s">
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M158" s="5" t="s">
+      <c r="K158" s="2"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N158" s="5" t="s">
+      <c r="N158" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="5"/>
-      <c r="U158" s="5" t="s">
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V158" s="5"/>
+      <c r="V158" s="2"/>
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="5" t="s">
@@ -9708,9 +9536,7 @@
         <v>255</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>49</v>
       </c>
@@ -9758,9 +9584,7 @@
         <v>256</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>49</v>
       </c>
@@ -9814,9 +9638,7 @@
       <c r="K161" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L161" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>49</v>
       </c>
@@ -9843,44 +9665,42 @@
       </c>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5" t="s">
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M162" s="5" t="s">
+      <c r="K162" s="2"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N162" s="5" t="s">
+      <c r="N162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5" t="s">
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V162" s="5"/>
+      <c r="V162" s="2"/>
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="5" t="s">
@@ -9904,9 +9724,7 @@
         <v>255</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>50</v>
       </c>
@@ -9954,9 +9772,7 @@
         <v>256</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>50</v>
       </c>
@@ -10010,9 +9826,7 @@
       <c r="K165" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L165" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>50</v>
       </c>
@@ -10039,44 +9853,42 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M166" s="5" t="s">
+      <c r="K166" s="2"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V166" s="5"/>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -10100,9 +9912,7 @@
         <v>255</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>51</v>
       </c>
@@ -10146,9 +9956,7 @@
         <v>289</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>51</v>
       </c>
@@ -10198,9 +10006,7 @@
         <v>256</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>51</v>
       </c>
@@ -10254,9 +10060,7 @@
       <c r="K170" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L170" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>51</v>
       </c>
@@ -10308,9 +10112,7 @@
         <v>291</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>51</v>
       </c>
@@ -10335,44 +10137,42 @@
       <c r="V171" s="5"/>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5" t="s">
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5" t="s">
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M172" s="5" t="s">
+      <c r="K172" s="2"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N172" s="5"/>
-      <c r="O172" s="5" t="s">
+      <c r="N172" s="2"/>
+      <c r="O172" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
-      <c r="U172" s="5" t="s">
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V172" s="5"/>
+      <c r="V172" s="2"/>
     </row>
     <row r="173" spans="1:22">
       <c r="A173" s="5" t="s">
@@ -10398,9 +10198,7 @@
         <v>292</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>52</v>
       </c>
@@ -10423,44 +10221,42 @@
       <c r="V173" s="5"/>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5" t="s">
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M174" s="5" t="s">
+      <c r="K174" s="2"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N174" s="5" t="s">
+      <c r="N174" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O174" s="5"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5"/>
-      <c r="S174" s="5"/>
-      <c r="T174" s="5"/>
-      <c r="U174" s="5" t="s">
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V174" s="5"/>
+      <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22">
       <c r="A175" s="5" t="s">
@@ -10484,9 +10280,7 @@
         <v>255</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>53</v>
       </c>
@@ -10534,9 +10328,7 @@
         <v>256</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>53</v>
       </c>
@@ -10590,9 +10382,7 @@
       <c r="K177" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L177" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>53</v>
       </c>
@@ -10619,44 +10409,42 @@
       </c>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5" t="s">
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M178" s="5" t="s">
+      <c r="K178" s="2"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N178" s="5" t="s">
+      <c r="N178" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O178" s="5"/>
-      <c r="P178" s="5"/>
-      <c r="Q178" s="5"/>
-      <c r="R178" s="5"/>
-      <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
-      <c r="U178" s="5" t="s">
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+      <c r="U178" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V178" s="5"/>
+      <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="5" t="s">
@@ -10680,9 +10468,7 @@
         <v>255</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>54</v>
       </c>
@@ -10730,9 +10516,7 @@
         <v>256</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>54</v>
       </c>
@@ -10786,9 +10570,7 @@
       <c r="K181" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L181" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>54</v>
       </c>
@@ -10815,44 +10597,42 @@
       </c>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="K182" s="2"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N182" s="5" t="s">
+      <c r="N182" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V182" s="5"/>
+      <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="5" t="s">
@@ -10876,9 +10656,7 @@
         <v>255</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>55</v>
       </c>
@@ -10922,9 +10700,7 @@
         <v>289</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>55</v>
       </c>
@@ -10974,9 +10750,7 @@
         <v>256</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>55</v>
       </c>
@@ -11030,9 +10804,7 @@
       <c r="K186" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L186" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>55</v>
       </c>
@@ -11084,9 +10856,7 @@
         <v>291</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>55</v>
       </c>
@@ -11111,48 +10881,46 @@
       <c r="V187" s="5"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5" t="s">
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M188" s="5" t="s">
+      <c r="K188" s="2"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N188" s="5" t="s">
+      <c r="N188" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O188" s="5" t="s">
+      <c r="O188" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P188" s="5"/>
-      <c r="Q188" s="5"/>
-      <c r="R188" s="5"/>
-      <c r="S188" s="5"/>
-      <c r="T188" s="5"/>
-      <c r="U188" s="5" t="s">
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+      <c r="U188" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V188" s="5"/>
+      <c r="V188" s="2"/>
     </row>
     <row r="189" spans="1:22">
       <c r="A189" s="5" t="s">
@@ -11182,9 +10950,7 @@
         <v>256</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>56</v>
       </c>
@@ -11238,9 +11004,7 @@
       <c r="K190" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L190" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>56</v>
       </c>
@@ -11267,48 +11031,46 @@
       </c>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5" t="s">
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M191" s="5" t="s">
+      <c r="K191" s="2"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N191" s="5" t="s">
+      <c r="N191" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O191" s="5" t="s">
+      <c r="O191" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-      <c r="U191" s="5" t="s">
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V191" s="5"/>
+      <c r="V191" s="2"/>
     </row>
     <row r="192" spans="1:22">
       <c r="A192" s="5" t="s">
@@ -11338,9 +11100,7 @@
         <v>256</v>
       </c>
       <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L192" s="4"/>
       <c r="M192" s="5" t="s">
         <v>57</v>
       </c>
@@ -11394,9 +11154,7 @@
       <c r="K193" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L193" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="5" t="s">
         <v>57</v>
       </c>
@@ -11423,44 +11181,42 @@
       </c>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5" t="s">
+      <c r="C194" s="2"/>
+      <c r="D194" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5" t="s">
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M194" s="5" t="s">
+      <c r="K194" s="2"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N194" s="5"/>
-      <c r="O194" s="5" t="s">
+      <c r="N194" s="2"/>
+      <c r="O194" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P194" s="5"/>
-      <c r="Q194" s="5"/>
-      <c r="R194" s="5"/>
-      <c r="S194" s="5"/>
-      <c r="T194" s="5"/>
-      <c r="U194" s="5" t="s">
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="V194" s="5"/>
+      <c r="V194" s="2"/>
     </row>
     <row r="195" spans="1:22">
       <c r="A195" s="5" t="s">
@@ -11486,9 +11242,7 @@
         <v>256</v>
       </c>
       <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L195" s="4"/>
       <c r="M195" s="5" t="s">
         <v>58</v>
       </c>
@@ -11534,9 +11288,7 @@
         <v>256</v>
       </c>
       <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>58</v>
       </c>

--- a/data/output/FV2304_FV2210/INVOIC/31011.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31011.xlsx
@@ -1640,7 +1640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1669,11 +1669,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2111,7 +2117,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2447,7 +2453,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2623,7 +2629,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2811,7 +2817,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -3001,7 +3007,7 @@
         <v>294</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -3189,7 +3195,7 @@
         <v>294</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2"/>
@@ -3377,7 +3383,7 @@
         <v>295</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2"/>
@@ -3567,7 +3573,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2"/>
@@ -3757,7 +3763,7 @@
         <v>297</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="2"/>
@@ -3889,7 +3895,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4079,7 +4085,7 @@
         <v>298</v>
       </c>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4269,7 +4275,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4473,7 +4479,7 @@
         <v>295</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4663,7 +4669,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5303,20 +5309,20 @@
       <c r="B69" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10" t="s">
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="11" t="s">
+      <c r="K69" s="11"/>
+      <c r="L69" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M69" s="5"/>
@@ -5334,25 +5340,25 @@
       <c r="A70" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10" t="s">
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="K70" s="10"/>
-      <c r="L70" s="11" t="s">
+      <c r="K70" s="11"/>
+      <c r="L70" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M70" s="5"/>
@@ -5370,31 +5376,31 @@
       <c r="A71" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10" t="s">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10" t="s">
+      <c r="H71" s="11"/>
+      <c r="I71" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="11" t="s">
+      <c r="J71" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="K71" s="11"/>
+      <c r="L71" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M71" s="5"/>
@@ -5412,33 +5418,33 @@
       <c r="A72" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10" t="s">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10" t="s">
+      <c r="H72" s="11"/>
+      <c r="I72" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="J72" s="10" t="s">
+      <c r="J72" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L72" s="11" t="s">
+      <c r="L72" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M72" s="5"/>
@@ -5456,29 +5462,29 @@
       <c r="A73" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10" t="s">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="J73" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="11" t="s">
+      <c r="J73" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M73" s="5"/>
@@ -5509,7 +5515,7 @@
       <c r="L74" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="M74" s="9" t="s">
+      <c r="M74" s="13" t="s">
         <v>316</v>
       </c>
       <c r="N74" s="9" t="s">
@@ -5709,7 +5715,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5887,7 +5893,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6247,7 +6253,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6883,22 +6889,22 @@
       <c r="B103" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10" t="s">
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="K103" s="10" t="s">
+      <c r="K103" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="L103" s="11" t="s">
+      <c r="L103" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M103" s="5"/>
@@ -6916,25 +6922,25 @@
       <c r="A104" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10" t="s">
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="K104" s="10"/>
-      <c r="L104" s="11" t="s">
+      <c r="K104" s="11"/>
+      <c r="L104" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M104" s="5"/>
@@ -6952,31 +6958,31 @@
       <c r="A105" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10" t="s">
+      <c r="F105" s="11"/>
+      <c r="G105" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10" t="s">
+      <c r="H105" s="11"/>
+      <c r="I105" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="J105" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K105" s="10"/>
-      <c r="L105" s="11" t="s">
+      <c r="J105" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="K105" s="11"/>
+      <c r="L105" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M105" s="5"/>
@@ -6994,33 +7000,33 @@
       <c r="A106" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10" t="s">
+      <c r="F106" s="11"/>
+      <c r="G106" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10" t="s">
+      <c r="H106" s="11"/>
+      <c r="I106" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="J106" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K106" s="10" t="s">
+      <c r="K106" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L106" s="11" t="s">
+      <c r="L106" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M106" s="5"/>
@@ -7038,29 +7044,29 @@
       <c r="A107" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10" t="s">
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="J107" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K107" s="10"/>
-      <c r="L107" s="11" t="s">
+      <c r="J107" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="K107" s="11"/>
+      <c r="L107" s="12" t="s">
         <v>315</v>
       </c>
       <c r="M107" s="5"/>
@@ -7091,7 +7097,7 @@
       <c r="L108" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="M108" s="13" t="s">
         <v>316</v>
       </c>
       <c r="N108" s="9" t="s">
@@ -7293,7 +7299,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7673,7 +7679,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7813,7 +7819,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8055,7 +8061,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8183,7 +8189,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8381,7 +8387,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8625,7 +8631,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8885,7 +8891,7 @@
         <v>294</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9089,7 +9095,7 @@
         <v>294</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9293,7 +9299,7 @@
         <v>295</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9497,7 +9503,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -9685,7 +9691,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -9873,7 +9879,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10157,7 +10163,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N172" s="2"/>
@@ -10241,7 +10247,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10429,7 +10435,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -10617,7 +10623,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -10903,7 +10909,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -11053,7 +11059,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -11201,7 +11207,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N194" s="2"/>
